--- a/canada_list.xlsx
+++ b/canada_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markkang/Desktop/CapitalOneHackathon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidterpay/Desktop/C1Hack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83B7990-B019-9D4E-AF73-8B094EC6F4F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDAF0AC-143E-1741-822A-96ECF5D24FD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,9 +202,6 @@
     <t>$575</t>
   </si>
   <si>
-    <t>Yukon , Canada</t>
-  </si>
-  <si>
     <t>$1,279</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>$1,120</t>
+  </si>
+  <si>
+    <t>Yukon, Canada</t>
   </si>
 </sst>
 </file>
@@ -236,6 +236,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -582,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1715,13 +1716,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C81">
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1729,7 +1730,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C82">
         <v>20</v>
@@ -1743,13 +1744,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C83">
         <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1757,13 +1758,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C84">
         <v>60</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1771,13 +1772,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C85">
         <v>70</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -1785,13 +1786,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C86">
         <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
